--- a/Backend/output.xlsx
+++ b/Backend/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,444 +428,534 @@
         <v>teamLeader_year</v>
       </c>
       <c r="I1" t="str">
+        <v>team_member1_name</v>
+      </c>
+      <c r="J1" t="str">
+        <v>team_member1_email</v>
+      </c>
+      <c r="K1" t="str">
+        <v>team_member1_mob</v>
+      </c>
+      <c r="L1" t="str">
+        <v>team_member1_branch</v>
+      </c>
+      <c r="M1" t="str">
+        <v>team_member1_year</v>
+      </c>
+      <c r="N1" t="str">
+        <v>team_member2_name</v>
+      </c>
+      <c r="O1" t="str">
+        <v>team_member2_email</v>
+      </c>
+      <c r="P1" t="str">
+        <v>team_member2_mob</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>team_member2_branch</v>
+      </c>
+      <c r="R1" t="str">
+        <v>team_member2_year</v>
+      </c>
+      <c r="S1" t="str">
+        <v>team_member3_name</v>
+      </c>
+      <c r="T1" t="str">
+        <v>team_member3_email</v>
+      </c>
+      <c r="U1" t="str">
+        <v>team_member3_mob</v>
+      </c>
+      <c r="V1" t="str">
+        <v>team_member3_branch</v>
+      </c>
+      <c r="W1" t="str">
+        <v>team_member3_year</v>
+      </c>
+      <c r="X1" t="str">
+        <v>team_member4_name</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>team_member4_email</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>team_member4_mob</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>team_member4_branch</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>team_member4_year</v>
+      </c>
+      <c r="AC1" t="str">
         <v>image_url</v>
       </c>
-      <c r="J1" t="str">
+      <c r="AD1" t="str">
         <v>tranjectionId</v>
       </c>
-      <c r="K1" t="str">
+      <c r="AE1" t="str">
         <v>__v</v>
-      </c>
-      <c r="L1" t="str">
-        <v>team_member1_name</v>
-      </c>
-      <c r="M1" t="str">
-        <v>team_member1_email</v>
-      </c>
-      <c r="N1" t="str">
-        <v>team_member1_mob</v>
-      </c>
-      <c r="O1" t="str">
-        <v>team_member1_branch</v>
-      </c>
-      <c r="P1" t="str">
-        <v>team_member1_year</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="str">
-        <v>code</v>
+        <v>SwiftWing Fire 1</v>
       </c>
       <c r="C2" t="str">
-        <v>CodeInstitute</v>
+        <v>DDU</v>
       </c>
       <c r="D2" t="str">
-        <v>Rajneesh</v>
+        <v>Rajneesh yadav</v>
       </c>
       <c r="E2" t="str">
-        <v>rajneeshyadav0507@gmail.com</v>
+        <v>rajneeshyadav507@gmail.com</v>
       </c>
       <c r="F2" t="str">
-        <v>123456</v>
+        <v>9026975515</v>
       </c>
       <c r="G2" t="str">
-        <v>cs</v>
+        <v>ECE</v>
       </c>
       <c r="H2" t="str">
-        <v>3</v>
+        <v>3rd</v>
       </c>
       <c r="I2" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755265273/uploadnew/vd8kgevsctwe5zfpeuwv.jpg</v>
+        <v>Divyansh Jaiswal</v>
       </c>
       <c r="J2" t="str">
-        <v>1233</v>
-      </c>
-      <c r="K2">
+        <v>ram!gmail</v>
+      </c>
+      <c r="K2" t="str">
+        <v>7411258963</v>
+      </c>
+      <c r="L2" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="M2" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="N2" t="str">
+        <v>ram</v>
+      </c>
+      <c r="O2" t="str">
+        <v>ramama@gmail.com</v>
+      </c>
+      <c r="P2" t="str">
+        <v>9638527410</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>EE</v>
+      </c>
+      <c r="R2" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="S2" t="str">
+        <v>Dsa</v>
+      </c>
+      <c r="T2" t="str">
+        <v>raw@gmail.com</v>
+      </c>
+      <c r="U2" t="str">
+        <v>7415829630</v>
+      </c>
+      <c r="V2" t="str">
+        <v>ME</v>
+      </c>
+      <c r="W2" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="X2" t="str">
+        <v>dfdf</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>fhgn@gmail.com</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>9638527410</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>ME</v>
+      </c>
+      <c r="AB2" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="AC2" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755365855/uploadnew/yzfg9c1inffehi5jxdyh.jpg</v>
+      </c>
+      <c r="AD2" t="str">
+        <v>12345678888888</v>
+      </c>
+      <c r="AE2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>code</v>
+        <v>sdfghg</v>
       </c>
       <c r="C3" t="str">
-        <v>CodeInstitute</v>
+        <v>sdfsdfsdf</v>
       </c>
       <c r="D3" t="str">
-        <v>Rajneesh</v>
+        <v>sdvzzsdfgdfg</v>
       </c>
       <c r="E3" t="str">
-        <v>rajneeshyadav0507@gmail.com</v>
+        <v>sdfghjhg@ghgh.lll</v>
       </c>
       <c r="F3" t="str">
-        <v>123456</v>
+        <v>9876543</v>
       </c>
       <c r="G3" t="str">
-        <v>cs</v>
+        <v>EE</v>
       </c>
       <c r="H3" t="str">
-        <v>3</v>
-      </c>
-      <c r="I3" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755266228/uploadnew/zazacmgxmhnlowzslbbp.jpg</v>
-      </c>
-      <c r="J3" t="str">
-        <v>1233</v>
-      </c>
-      <c r="K3">
+        <v>1st</v>
+      </c>
+      <c r="AC3" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755370368/uploadnew/l7xeey5nrqdlwdudjluy.jpg</v>
+      </c>
+      <c r="AD3" t="str">
+        <v>3456787654</v>
+      </c>
+      <c r="AE3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="str">
-        <v>code</v>
+        <v>sdfghg</v>
       </c>
       <c r="C4" t="str">
-        <v>CodeInstitute</v>
+        <v>sdfsdfsdf</v>
       </c>
       <c r="D4" t="str">
-        <v>Rajneesh</v>
+        <v>sdvzzsdfgdfg</v>
       </c>
       <c r="E4" t="str">
-        <v>rajneeshyadav0507@gmail.com</v>
+        <v>sdfghjhg@ghgh.lll</v>
       </c>
       <c r="F4" t="str">
-        <v>123456</v>
+        <v>9876543</v>
       </c>
       <c r="G4" t="str">
-        <v>cs</v>
+        <v>EE</v>
       </c>
       <c r="H4" t="str">
-        <v>3</v>
-      </c>
-      <c r="I4" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755266275/uploadnew/di09gqqx7mfq6xlxdwiu.jpg</v>
-      </c>
-      <c r="J4" t="str">
-        <v>1233</v>
-      </c>
-      <c r="K4">
+        <v>1st</v>
+      </c>
+      <c r="AC4" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755370374/uploadnew/ahrtmj29xn82n2dfakh2.jpg</v>
+      </c>
+      <c r="AD4" t="str">
+        <v>3456787654</v>
+      </c>
+      <c r="AE4">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="str">
-        <v>code</v>
+        <v>ghjklasjd</v>
       </c>
       <c r="C5" t="str">
-        <v>CodeInstitute</v>
+        <v>hkjl;ljkhkjl</v>
       </c>
       <c r="D5" t="str">
-        <v>Rajneesh</v>
+        <v>fgjuhyiopikjln</v>
       </c>
       <c r="E5" t="str">
-        <v>rajneeshyadav0507@gmail.com</v>
+        <v>tyuiolkjhbgv@hjikjm,.jikjnjk</v>
       </c>
       <c r="F5" t="str">
-        <v>123456</v>
+        <v>9876567898765</v>
       </c>
       <c r="G5" t="str">
-        <v>cs</v>
+        <v>ME</v>
       </c>
       <c r="H5" t="str">
-        <v>3</v>
-      </c>
-      <c r="I5" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755266325/uploadnew/pdvoyumwtdyxy5lxaqmq.jpg</v>
-      </c>
-      <c r="J5" t="str">
-        <v>1233</v>
-      </c>
-      <c r="K5">
+        <v>1st</v>
+      </c>
+      <c r="AC5" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755371016/uploadnew/tksyh5e5utni3gcpg1n9.jpg</v>
+      </c>
+      <c r="AD5" t="str">
+        <v>987654</v>
+      </c>
+      <c r="AE5">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="str">
-        <v>code</v>
+        <v>tachnominati</v>
       </c>
       <c r="C6" t="str">
-        <v>CodeInstitute</v>
+        <v>mmmut</v>
       </c>
       <c r="D6" t="str">
-        <v>Rajneesh</v>
+        <v xml:space="preserve">aman </v>
       </c>
       <c r="E6" t="str">
-        <v>rajneeshyadav0507@gmail.com</v>
+        <v>amanjais120@gmail.com</v>
       </c>
       <c r="F6" t="str">
-        <v>123456</v>
+        <v>9555951834</v>
       </c>
       <c r="G6" t="str">
-        <v>cs</v>
+        <v>ECE(IoT)</v>
       </c>
       <c r="H6" t="str">
-        <v>3</v>
-      </c>
-      <c r="I6" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755266374/uploadnew/nbf07ja07mugguelzjb9.jpg</v>
-      </c>
-      <c r="J6" t="str">
-        <v>1233</v>
-      </c>
-      <c r="K6">
+        <v>3rd</v>
+      </c>
+      <c r="AC6" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755613681/uploadnew/ssr3iynif7j9ynxxi9z1.jpg</v>
+      </c>
+      <c r="AD6" t="str">
+        <v>12344847847</v>
+      </c>
+      <c r="AE6">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="str">
-        <v>code</v>
+        <v>tachnominati</v>
       </c>
       <c r="C7" t="str">
-        <v>CodeInstitute</v>
+        <v>mmmut</v>
       </c>
       <c r="D7" t="str">
-        <v>Rajneesh</v>
+        <v xml:space="preserve">aman </v>
       </c>
       <c r="E7" t="str">
-        <v>rajneeshyadav0507@gmail.com</v>
+        <v>amanjais120@gmail.com</v>
       </c>
       <c r="F7" t="str">
-        <v>123456</v>
+        <v>9555951834</v>
       </c>
       <c r="G7" t="str">
-        <v>cs</v>
+        <v>ECE(IoT)</v>
       </c>
       <c r="H7" t="str">
-        <v>3</v>
-      </c>
-      <c r="I7" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755266426/uploadnew/i6oggixxwck2fadpwpcu.jpg</v>
-      </c>
-      <c r="J7" t="str">
-        <v>1233</v>
-      </c>
-      <c r="K7">
+        <v>3rd</v>
+      </c>
+      <c r="AC7" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755613681/uploadnew/cqxhfqlabyrqlc6nhvsa.jpg</v>
+      </c>
+      <c r="AD7" t="str">
+        <v>12344847847</v>
+      </c>
+      <c r="AE7">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="str">
-        <v>code</v>
+        <v>tachnominati</v>
       </c>
       <c r="C8" t="str">
-        <v>CodeInstitute</v>
+        <v>mmmut</v>
       </c>
       <c r="D8" t="str">
-        <v>Rajneesh</v>
+        <v xml:space="preserve">aman </v>
       </c>
       <c r="E8" t="str">
-        <v>rajneeshyadav0507@gmail.com</v>
+        <v>amanjais120@gmail.com</v>
       </c>
       <c r="F8" t="str">
-        <v>123456</v>
+        <v>9555951834</v>
       </c>
       <c r="G8" t="str">
-        <v>cs</v>
+        <v>ECE(IoT)</v>
       </c>
       <c r="H8" t="str">
-        <v>3</v>
-      </c>
-      <c r="I8" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755266819/uploadnew/ejtv4zv3vcymao45ehcq.jpg</v>
-      </c>
-      <c r="J8" t="str">
-        <v>1233</v>
-      </c>
-      <c r="K8">
+        <v>3rd</v>
+      </c>
+      <c r="AC8" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755613684/uploadnew/vcolmsa9z4hnipu7abnd.jpg</v>
+      </c>
+      <c r="AD8" t="str">
+        <v>12344847847</v>
+      </c>
+      <c r="AE8">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="str">
-        <v>code</v>
+        <v>tachnominati</v>
       </c>
       <c r="C9" t="str">
-        <v>CodeInstitute</v>
+        <v>mmmut</v>
       </c>
       <c r="D9" t="str">
-        <v>Rajneesh</v>
+        <v xml:space="preserve">aman </v>
       </c>
       <c r="E9" t="str">
-        <v>rajneeshyadav0507@gmail.com</v>
+        <v>amanjais120@gmail.com</v>
       </c>
       <c r="F9" t="str">
-        <v>123456</v>
+        <v>9555951834</v>
       </c>
       <c r="G9" t="str">
-        <v>cs</v>
+        <v>ECE(IoT)</v>
       </c>
       <c r="H9" t="str">
-        <v>3</v>
-      </c>
-      <c r="I9" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755267346/uploadnew/r7fzqxzoil0euc8a9ktq.jpg</v>
-      </c>
-      <c r="J9" t="str">
-        <v>1233</v>
-      </c>
-      <c r="K9">
+        <v>3rd</v>
+      </c>
+      <c r="AC9" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755613685/uploadnew/ogzncdnecuo7r6z7y7yl.jpg</v>
+      </c>
+      <c r="AD9" t="str">
+        <v>12344847847</v>
+      </c>
+      <c r="AE9">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <v>code</v>
+        <v>tachnominati</v>
       </c>
       <c r="C10" t="str">
-        <v>CodeInstitute</v>
+        <v>mmmut</v>
       </c>
       <c r="D10" t="str">
-        <v>Rajneesh</v>
+        <v xml:space="preserve">aman </v>
       </c>
       <c r="E10" t="str">
-        <v>rajneeshyadav0507@gmail.com</v>
+        <v>amanjais120@gmail.com</v>
       </c>
       <c r="F10" t="str">
-        <v>123456</v>
+        <v>9555951834</v>
       </c>
       <c r="G10" t="str">
-        <v>cs</v>
+        <v>ECE(IoT)</v>
       </c>
       <c r="H10" t="str">
-        <v>3</v>
-      </c>
-      <c r="I10" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755267435/uploadnew/kbcin0lxab7emfefiwp7.jpg</v>
-      </c>
-      <c r="J10" t="str">
-        <v>1233</v>
-      </c>
-      <c r="K10">
+        <v>3rd</v>
+      </c>
+      <c r="AC10" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755613685/uploadnew/brb4j4lbihbtzmf6ufb1.jpg</v>
+      </c>
+      <c r="AD10" t="str">
+        <v>12344847847</v>
+      </c>
+      <c r="AE10">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="str">
-        <v>code</v>
+        <v>tachnominati</v>
       </c>
       <c r="C11" t="str">
-        <v>CodeInstitute</v>
+        <v>mmmut</v>
       </c>
       <c r="D11" t="str">
-        <v>Rajneesh</v>
+        <v xml:space="preserve">aman </v>
       </c>
       <c r="E11" t="str">
-        <v>rajneeshyadav0507@gmail.com</v>
+        <v>amanjais120@gmail.com</v>
       </c>
       <c r="F11" t="str">
-        <v>123456</v>
+        <v>9555951834</v>
       </c>
       <c r="G11" t="str">
-        <v>cs</v>
+        <v>ECE(IoT)</v>
       </c>
       <c r="H11" t="str">
-        <v>3</v>
-      </c>
-      <c r="I11" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755267671/uploadnew/ssgu373rpnfmhcljn8d2.jpg</v>
-      </c>
-      <c r="J11" t="str">
-        <v>1233</v>
-      </c>
-      <c r="K11">
+        <v>3rd</v>
+      </c>
+      <c r="AC11" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755613686/uploadnew/cg6yzma1mczlztc3fjul.jpg</v>
+      </c>
+      <c r="AD11" t="str">
+        <v>12344847847</v>
+      </c>
+      <c r="AE11">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="str">
-        <v>code</v>
+        <v>tachnominati</v>
       </c>
       <c r="C12" t="str">
-        <v>CodeInstitute</v>
+        <v>mmmut</v>
       </c>
       <c r="D12" t="str">
-        <v>Rajneesh</v>
+        <v xml:space="preserve">aman </v>
       </c>
       <c r="E12" t="str">
-        <v>rajneeshyadav0507@gmail.com</v>
+        <v>amanjais120@gmail.com</v>
       </c>
       <c r="F12" t="str">
-        <v>123456</v>
+        <v>9555951834</v>
       </c>
       <c r="G12" t="str">
-        <v>cs</v>
+        <v>ECE(IoT)</v>
       </c>
       <c r="H12" t="str">
-        <v>3</v>
-      </c>
-      <c r="I12" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755272547/uploadnew/x7cmosxr2scugzkees7z.jpg</v>
-      </c>
-      <c r="J12" t="str">
-        <v>1233</v>
-      </c>
-      <c r="K12">
+        <v>3rd</v>
+      </c>
+      <c r="AC12" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755613686/uploadnew/myumsqbz4sqvtxhqebph.jpg</v>
+      </c>
+      <c r="AD12" t="str">
+        <v>12344847847</v>
+      </c>
+      <c r="AE12">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="str">
-        <v>ROc</v>
+        <v xml:space="preserve">avengers </v>
       </c>
       <c r="C13" t="str">
-        <v>Madan</v>
+        <v>mmmut</v>
       </c>
       <c r="D13" t="str">
-        <v>Rajn</v>
+        <v>aman jais</v>
       </c>
       <c r="E13" t="str">
-        <v>rajneeshyadav507@gmail.com</v>
+        <v>amanj952987@gmail.com</v>
       </c>
       <c r="F13" t="str">
-        <v>61233</v>
+        <v>9555951834</v>
       </c>
       <c r="G13" t="str">
-        <v>ECE</v>
+        <v>ECE(IoT)</v>
       </c>
       <c r="H13" t="str">
         <v>3rd</v>
       </c>
-      <c r="I13" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755360869/uploadnew/ehrsqwvwnq5fx9f7isly.jpg</v>
-      </c>
-      <c r="J13" t="str">
-        <v>234567890-</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="str">
-        <v>Devesh</v>
-      </c>
-      <c r="M13" t="str">
-        <v>2023041058@mmmut.ac.in</v>
-      </c>
-      <c r="N13" t="str">
-        <v>455</v>
-      </c>
-      <c r="O13" t="str">
-        <v>ECE(IoT)</v>
-      </c>
-      <c r="P13" t="str">
-        <v>2nd</v>
+      <c r="AC13" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755634041/uploadnew/hhfxdqam3aflc8gijsci.png</v>
+      </c>
+      <c r="AD13" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="str">
-        <v>ROc</v>
+        <v>wow bro</v>
       </c>
       <c r="C14" t="str">
-        <v>Madan</v>
+        <v>IIT bombay</v>
       </c>
       <c r="D14" t="str">
-        <v>Rajn</v>
+        <v>ujjwal gupta</v>
       </c>
       <c r="E14" t="str">
-        <v>rajneeshyadav507@gmail.com</v>
+        <v>amanjais1209@gmail.com</v>
       </c>
       <c r="F14" t="str">
-        <v>61233</v>
+        <v>9526356526</v>
       </c>
       <c r="G14" t="str">
         <v>ECE</v>
@@ -874,159 +964,221 @@
         <v>3rd</v>
       </c>
       <c r="I14" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755360869/uploadnew/kobvlejywyalitt2yrtl.jpg</v>
+        <v>suraj yadav</v>
       </c>
       <c r="J14" t="str">
-        <v>234567890-</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
+        <v>amanjais102@gmail.com</v>
+      </c>
+      <c r="K14" t="str">
+        <v>9525361456</v>
       </c>
       <c r="L14" t="str">
-        <v>Devesh</v>
+        <v>ECE(IoT)</v>
       </c>
       <c r="M14" t="str">
-        <v>2023041058@mmmut.ac.in</v>
-      </c>
-      <c r="N14" t="str">
-        <v>455</v>
-      </c>
-      <c r="O14" t="str">
-        <v>ECE(IoT)</v>
-      </c>
-      <c r="P14" t="str">
-        <v>2nd</v>
+        <v>3rd</v>
+      </c>
+      <c r="AC14" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755686850/uploadnew/rewvxcxthn5nfwuemuuh.jpg</v>
+      </c>
+      <c r="AD14" t="str">
+        <v>1233366588955</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="str">
-        <v>ROc</v>
+        <v>asgaurd</v>
       </c>
       <c r="C15" t="str">
-        <v>Madan</v>
+        <v>mmmmut</v>
       </c>
       <c r="D15" t="str">
-        <v>Rajn</v>
+        <v>Aman jaiswal</v>
       </c>
       <c r="E15" t="str">
-        <v>rajneeshyadav507@gmail.com</v>
+        <v>2023041208@mmmut.ac.in</v>
       </c>
       <c r="F15" t="str">
-        <v>61233</v>
+        <v>8562562385</v>
       </c>
       <c r="G15" t="str">
-        <v>ECE</v>
+        <v>ECE(IoT)</v>
       </c>
       <c r="H15" t="str">
-        <v>3rd</v>
+        <v>4th</v>
       </c>
       <c r="I15" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755360871/uploadnew/kij8dek03lmyyxx8kguo.jpg</v>
+        <v>amitesh jaiswal</v>
       </c>
       <c r="J15" t="str">
-        <v>234567890-</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
+        <v>amjdnd@gmail.com</v>
+      </c>
+      <c r="K15" t="str">
+        <v>8562562629</v>
       </c>
       <c r="L15" t="str">
-        <v>Devesh</v>
+        <v>EE</v>
       </c>
       <c r="M15" t="str">
-        <v>2023041058@mmmut.ac.in</v>
+        <v>2nd</v>
       </c>
       <c r="N15" t="str">
-        <v>455</v>
+        <v>anup gupta</v>
       </c>
       <c r="O15" t="str">
-        <v>ECE(IoT)</v>
+        <v>amanjas@gmail.com</v>
       </c>
       <c r="P15" t="str">
-        <v>2nd</v>
+        <v>9515624548</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="R15" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="AC15" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755688914/uploadnew/hwwoomknhutx7tcyqfwl.png</v>
+      </c>
+      <c r="AD15" t="str">
+        <v>258652653333</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="str">
-        <v>ROc</v>
+        <v>asgaurd</v>
       </c>
       <c r="C16" t="str">
-        <v>Madan</v>
+        <v>mmmmut</v>
       </c>
       <c r="D16" t="str">
-        <v>Rajn</v>
+        <v>Aman jaiswal</v>
       </c>
       <c r="E16" t="str">
-        <v>rajneeshyadav507@gmail.com</v>
+        <v>2023041208@mmmut.ac.in</v>
       </c>
       <c r="F16" t="str">
-        <v>61233</v>
+        <v>8562562385</v>
       </c>
       <c r="G16" t="str">
-        <v>ECE</v>
+        <v>ECE(IoT)</v>
       </c>
       <c r="H16" t="str">
-        <v>3rd</v>
+        <v>4th</v>
       </c>
       <c r="I16" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755360873/uploadnew/le02hqai1clynngbfmn2.jpg</v>
+        <v>amitesh jaiswal</v>
       </c>
       <c r="J16" t="str">
-        <v>234567890-</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
+        <v>amjdnd@gmail.com</v>
+      </c>
+      <c r="K16" t="str">
+        <v>8562562629</v>
       </c>
       <c r="L16" t="str">
-        <v>Devesh</v>
+        <v>EE</v>
       </c>
       <c r="M16" t="str">
-        <v>2023041058@mmmut.ac.in</v>
+        <v>2nd</v>
       </c>
       <c r="N16" t="str">
-        <v>455</v>
+        <v>anup gupta</v>
       </c>
       <c r="O16" t="str">
-        <v>ECE(IoT)</v>
+        <v>amanjas@gmail.com</v>
       </c>
       <c r="P16" t="str">
-        <v>2nd</v>
+        <v>9515624548</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="R16" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="AC16" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755688915/uploadnew/dq1b5jwc0l3lting0s8o.png</v>
+      </c>
+      <c r="AD16" t="str">
+        <v>258652653333</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="str">
-        <v>wee</v>
+        <v>bakchod</v>
       </c>
       <c r="C17" t="str">
-        <v>madad</v>
+        <v>MMMUT</v>
       </c>
       <c r="D17" t="str">
-        <v>ddwd</v>
+        <v>Rajneesh yadav</v>
       </c>
       <c r="E17" t="str">
-        <v>rajneeshyadav507@gmail.com</v>
+        <v>rajneeshyadav0507@gmail.com</v>
       </c>
       <c r="F17" t="str">
-        <v>77410</v>
+        <v>9522555665</v>
       </c>
       <c r="G17" t="str">
-        <v>B.PHARMA</v>
+        <v>ECE</v>
       </c>
       <c r="H17" t="str">
-        <v>2nd</v>
-      </c>
-      <c r="I17" t="str">
-        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755364336/uploadnew/mzz7yxm8q2wunkscsl5j.jpg</v>
-      </c>
-      <c r="J17" t="str">
-        <v>7410</v>
-      </c>
-      <c r="K17">
+        <v>3rd</v>
+      </c>
+      <c r="AC17" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755689566/uploadnew/zdfjwjubmntdmlfpnjkz.png</v>
+      </c>
+      <c r="AD17" t="str">
+        <v>2541265841236</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="str">
+        <v>aman</v>
+      </c>
+      <c r="C18" t="str">
+        <v>MMMUT</v>
+      </c>
+      <c r="D18" t="str">
+        <v>rajneesh</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2023041058@mmmut.ac.in</v>
+      </c>
+      <c r="F18" t="str">
+        <v>9226562656</v>
+      </c>
+      <c r="G18" t="str">
+        <v>ECE</v>
+      </c>
+      <c r="H18" t="str">
+        <v>3rd</v>
+      </c>
+      <c r="AC18" t="str">
+        <v>https://res.cloudinary.com/dlczp2anq/image/upload/v1755781238/uploadnew/qxlmyjvrf3ijgzzvce92.png</v>
+      </c>
+      <c r="AD18" t="str">
+        <v>asdfgh</v>
+      </c>
+      <c r="AE18">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE18"/>
   </ignoredErrors>
 </worksheet>
 </file>